--- a/DOC/結合テスト/給料作成結合テスト_項目仕様書.xlsx
+++ b/DOC/結合テスト/給料作成結合テスト_項目仕様書.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="6" r:id="rId1"/>
-    <sheet name="結合テスト" sheetId="2" r:id="rId2"/>
-    <sheet name="データチェック" sheetId="9" r:id="rId3"/>
-    <sheet name="新規作成テストデータ" sheetId="7" r:id="rId4"/>
-    <sheet name="変更テストデータ" sheetId="8" r:id="rId5"/>
+    <sheet name="履歴一覧" sheetId="10" r:id="rId2"/>
+    <sheet name="結合テスト" sheetId="2" r:id="rId3"/>
+    <sheet name="データチェック" sheetId="9" r:id="rId4"/>
+    <sheet name="新規作成テストデータ" sheetId="7" r:id="rId5"/>
+    <sheet name="変更テストデータ" sheetId="8" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
@@ -22,6 +22,7 @@
     <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
+    <externalReference r:id="rId14"/>
   </externalReferences>
   <definedNames>
     <definedName name="_a1">#REF!</definedName>
@@ -711,13 +712,140 @@
     <definedName name="可否" localSheetId="0">[6]定数!$A$2:$A$4</definedName>
     <definedName name="質問者リスト">[7]リスト!$A$1:$A$10</definedName>
     <definedName name="詳細有り無しリスト">[7]リスト!$C$1:$C$2</definedName>
+    <definedName name="__a1">#REF!</definedName>
+    <definedName name="HH" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
+    <definedName name="HTML_Control" hidden="1">{"'ﾒ画1 (2)'!$E$23"}</definedName>
+    <definedName name="HTML1_6" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML1_7" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML10_6" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML10_7" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML11_6" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML11_7" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML12_6" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML12_7" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML13_6" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML13_7" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML14_6" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML14_7" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML15_6" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML15_7" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML16_6" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML16_7" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML17_6" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML17_7" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML18_6" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML18_7" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML19_6" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML19_7" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML2_6" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML2_7" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML20_6" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML20_7" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML21_6" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML21_7" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML22_6" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML22_7" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML23_6" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML23_7" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML24_6" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML24_7" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML25_6" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML25_7" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML26_6" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML26_7" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML27_6" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML27_7" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML28_6" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML28_7" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML29_6" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML29_7" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML3_6" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML3_7" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML30_6" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML30_7" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML31_6" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML31_7" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML32_6" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML32_7" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML33_6" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML33_7" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML34_6" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML34_7" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML35_6" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML35_7" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML36_6" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML36_7" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML37_6" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML37_7" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML38_6" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML38_7" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML39_6" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML39_7" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML4_6" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML4_7" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML40_6" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML40_7" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML41_6" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML41_7" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML42_6" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML42_7" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML43_6" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML43_7" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML44_6" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML44_7" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML45_6" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML45_7" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML46_6" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML46_7" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML47_6" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML47_7" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML48_6" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML48_7" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML49_6" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML49_7" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML5_6" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML5_7" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML50_6" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML50_7" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML51_6" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML51_7" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML52_6" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML52_7" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML53_6" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML53_7" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML54_6" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML54_7" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML6_6" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML6_7" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML7_6" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML7_7" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML8_6" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML8_7" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML9_6" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="HTML9_7" localSheetId="1" hidden="1">-4146</definedName>
+    <definedName name="__ＩＯ２" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
+    <definedName name="Print_Title" localSheetId="1">#REF!</definedName>
+    <definedName name="S_GAIIRAI_3" localSheetId="1">[3]外注業務_3!#REF!</definedName>
+    <definedName name="S_GAIRAI_31" localSheetId="1">#REF!</definedName>
+    <definedName name="SSGAIIRAI_3" localSheetId="1">#REF!</definedName>
+    <definedName name="STGAIIRAI_3" localSheetId="1">#REF!</definedName>
+    <definedName name="T_TANKA_F" localSheetId="1">#REF!</definedName>
+    <definedName name="tttt" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
+    <definedName name="wrn.ORIG." hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
+    <definedName name="Z_BC167FCE_B111_466A_981A_2C8004338B1E_.wvu.PrintArea" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="Z_BC167FCE_B111_466A_981A_2C8004338B1E_.wvu.PrintTitles" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="あ" hidden="1">{"'ﾒ画1 (2)'!$E$23"}</definedName>
+    <definedName name="ああ" hidden="1">{"'ﾒ画1 (2)'!$E$23"}</definedName>
+    <definedName name="スケジュール" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
+    <definedName name="スケジュールORG" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
+    <definedName name="可否">[5]定数!$A$2:$A$4</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="112">
   <si>
     <t>給料作成結合テスト項目仕様書</t>
   </si>
@@ -734,13 +862,28 @@
     <t>給料明細作成</t>
   </si>
   <si>
+    <t>　　社内管理システム_給料作成結合テスト</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>日付</t>
+  </si>
+  <si>
+    <t>担当者</t>
+  </si>
+  <si>
+    <t>新規作成</t>
+  </si>
+  <si>
+    <t>馬</t>
+  </si>
+  <si>
     <t>項目</t>
-  </si>
-  <si>
-    <t>内容</t>
   </si>
   <si>
     <t>操作</t>
@@ -773,9 +916,6 @@
   </si>
   <si>
     <t>　　〇</t>
-  </si>
-  <si>
-    <t>馬</t>
   </si>
   <si>
     <t>更新時、画面入力値のチェック</t>
@@ -865,6 +1005,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>非数字（</t>
     </r>
     <r>
@@ -900,6 +1046,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>非日付（</t>
     </r>
     <r>
@@ -969,6 +1121,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>手当加算</t>
     </r>
     <r>
@@ -1008,6 +1166,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>厚生控除子育</t>
     </r>
     <r>
@@ -1049,6 +1213,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>雇用保拠出金（会社</t>
     </r>
     <r>
@@ -1067,6 +1237,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>労災保険（会社負担</t>
     </r>
     <r>
@@ -1189,14 +1365,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy/m"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="0.00&quot;日&quot;"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="0.00&quot;日&quot;"/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1230,66 +1406,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="18"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="20"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1306,6 +1453,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Fj明朝体(ﾓﾄﾔ)"/>
+      <charset val="128"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -1313,8 +1481,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1323,7 +1513,34 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="明朝"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1331,7 +1548,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1346,7 +1563,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1361,61 +1586,14 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Fj明朝体(ﾓﾄﾔ)"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="明朝"/>
-      <charset val="128"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1430,7 +1608,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1442,25 +1734,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1472,109 +1770,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1586,30 +1788,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1700,6 +1884,34 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1822,6 +2034,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1837,6 +2069,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1848,15 +2098,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1890,188 +2131,159 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2093,7 +2305,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2159,118 +2371,139 @@
     <xf numFmtId="56" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="14" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="17" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="18" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="18" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="17" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="19" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="17" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="19" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="18" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="20" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2483,16 +2716,22 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="表紙"/>
+      <sheetName val="履歴一覧"/>
       <sheetName val="画面レイアウト"/>
       <sheetName val="処理概要"/>
       <sheetName val="入出力項目定義書"/>
-      <sheetName val="メッセージ一覧"/>
+      <sheetName val="メッセージ使用一覧"/>
+      <sheetName val="処理定義書"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2760,896 +2999,896 @@
   </sheetPr>
   <dimension ref="A1:X54"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.75" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="21" width="5.75" style="31"/>
-    <col min="22" max="22" width="5.75" style="32"/>
-    <col min="23" max="23" width="5.75" style="31"/>
-    <col min="24" max="16384" width="5.75" style="32"/>
+    <col min="1" max="21" width="5.75" style="38"/>
+    <col min="22" max="22" width="5.75" style="39"/>
+    <col min="23" max="23" width="5.75" style="38"/>
+    <col min="24" max="16384" width="5.75" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" s="29" customFormat="1" spans="1:24">
-      <c r="A1" s="33"/>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="57"/>
-    </row>
-    <row r="2" s="29" customFormat="1" spans="1:24">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="58"/>
-    </row>
-    <row r="3" s="30" customFormat="1" spans="1:24">
-      <c r="A3" s="38"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="59"/>
-    </row>
-    <row r="4" s="30" customFormat="1" spans="1:24">
-      <c r="A4" s="38"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="X4" s="59"/>
-    </row>
-    <row r="5" s="30" customFormat="1" spans="1:24">
-      <c r="A5" s="38"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="X5" s="59"/>
-    </row>
-    <row r="6" s="30" customFormat="1" spans="1:24">
-      <c r="A6" s="38"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="X6" s="59"/>
-    </row>
-    <row r="7" s="30" customFormat="1" spans="1:24">
-      <c r="A7" s="38"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="W7" s="37"/>
-      <c r="X7" s="59"/>
-    </row>
-    <row r="8" s="30" customFormat="1" spans="1:24">
-      <c r="A8" s="38"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="59"/>
-    </row>
-    <row r="9" s="30" customFormat="1" spans="1:24">
-      <c r="A9" s="38"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="W9" s="37"/>
-      <c r="X9" s="59"/>
-    </row>
-    <row r="10" s="30" customFormat="1" spans="1:24">
-      <c r="A10" s="38"/>
-      <c r="B10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="37"/>
-      <c r="U10" s="37"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="59"/>
-    </row>
-    <row r="11" s="30" customFormat="1" spans="1:24">
-      <c r="A11" s="38"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="37"/>
-      <c r="U11" s="37"/>
-      <c r="V11" s="37"/>
-      <c r="W11" s="37"/>
-      <c r="X11" s="59"/>
-    </row>
-    <row r="12" s="30" customFormat="1" spans="1:24">
-      <c r="A12" s="38"/>
-      <c r="B12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37"/>
-      <c r="T12" s="37"/>
-      <c r="U12" s="37"/>
-      <c r="V12" s="37"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="59"/>
-    </row>
-    <row r="13" s="30" customFormat="1" spans="1:24">
-      <c r="A13" s="38"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="59"/>
-    </row>
-    <row r="14" s="30" customFormat="1" spans="1:24">
-      <c r="A14" s="38"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="S14" s="37"/>
-      <c r="T14" s="37"/>
-      <c r="U14" s="37"/>
-      <c r="V14" s="37"/>
-      <c r="W14" s="37"/>
-      <c r="X14" s="59"/>
-    </row>
-    <row r="15" s="30" customFormat="1" ht="21" spans="1:24">
-      <c r="A15" s="38"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="I15" s="55" t="s">
+    <row r="1" s="36" customFormat="1" spans="1:24">
+      <c r="A1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="64"/>
+    </row>
+    <row r="2" s="36" customFormat="1" spans="1:24">
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="65"/>
+    </row>
+    <row r="3" s="37" customFormat="1" spans="1:24">
+      <c r="A3" s="45"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="66"/>
+    </row>
+    <row r="4" s="37" customFormat="1" spans="1:24">
+      <c r="A4" s="45"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="X4" s="66"/>
+    </row>
+    <row r="5" s="37" customFormat="1" spans="1:24">
+      <c r="A5" s="45"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="X5" s="66"/>
+    </row>
+    <row r="6" s="37" customFormat="1" spans="1:24">
+      <c r="A6" s="45"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="X6" s="66"/>
+    </row>
+    <row r="7" s="37" customFormat="1" spans="1:24">
+      <c r="A7" s="45"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="66"/>
+    </row>
+    <row r="8" s="37" customFormat="1" spans="1:24">
+      <c r="A8" s="45"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="W8" s="44"/>
+      <c r="X8" s="66"/>
+    </row>
+    <row r="9" s="37" customFormat="1" spans="1:24">
+      <c r="A9" s="45"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="W9" s="44"/>
+      <c r="X9" s="66"/>
+    </row>
+    <row r="10" s="37" customFormat="1" spans="1:24">
+      <c r="A10" s="45"/>
+      <c r="B10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="44"/>
+      <c r="U10" s="44"/>
+      <c r="V10" s="44"/>
+      <c r="W10" s="44"/>
+      <c r="X10" s="66"/>
+    </row>
+    <row r="11" s="37" customFormat="1" spans="1:24">
+      <c r="A11" s="45"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="44"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="44"/>
+      <c r="U11" s="44"/>
+      <c r="V11" s="44"/>
+      <c r="W11" s="44"/>
+      <c r="X11" s="66"/>
+    </row>
+    <row r="12" s="37" customFormat="1" spans="1:24">
+      <c r="A12" s="45"/>
+      <c r="B12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="44"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="44"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="44"/>
+      <c r="X12" s="66"/>
+    </row>
+    <row r="13" s="37" customFormat="1" spans="1:24">
+      <c r="A13" s="45"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="44"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="44"/>
+      <c r="U13" s="44"/>
+      <c r="V13" s="44"/>
+      <c r="W13" s="44"/>
+      <c r="X13" s="66"/>
+    </row>
+    <row r="14" s="37" customFormat="1" spans="1:24">
+      <c r="A14" s="45"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="S14" s="44"/>
+      <c r="T14" s="44"/>
+      <c r="U14" s="44"/>
+      <c r="V14" s="44"/>
+      <c r="W14" s="44"/>
+      <c r="X14" s="66"/>
+    </row>
+    <row r="15" s="37" customFormat="1" ht="21" spans="1:24">
+      <c r="A15" s="45"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="I15" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="56"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="59"/>
-    </row>
-    <row r="16" s="30" customFormat="1" spans="1:24">
-      <c r="A16" s="38"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="37"/>
-      <c r="U16" s="37"/>
-      <c r="V16" s="37"/>
-      <c r="W16" s="37"/>
-      <c r="X16" s="59"/>
-    </row>
-    <row r="17" s="30" customFormat="1" spans="1:24">
-      <c r="A17" s="38"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="37"/>
-      <c r="S17" s="37"/>
-      <c r="T17" s="37"/>
-      <c r="U17" s="37"/>
-      <c r="V17" s="37"/>
-      <c r="W17" s="37"/>
-      <c r="X17" s="59"/>
-    </row>
-    <row r="18" s="30" customFormat="1" ht="14.25" customHeight="1" spans="1:24">
-      <c r="A18" s="38"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="39" t="s">
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="63"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="44"/>
+      <c r="W15" s="44"/>
+      <c r="X15" s="66"/>
+    </row>
+    <row r="16" s="37" customFormat="1" spans="1:24">
+      <c r="A16" s="45"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="44"/>
+      <c r="U16" s="44"/>
+      <c r="V16" s="44"/>
+      <c r="W16" s="44"/>
+      <c r="X16" s="66"/>
+    </row>
+    <row r="17" s="37" customFormat="1" spans="1:24">
+      <c r="A17" s="45"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="44"/>
+      <c r="S17" s="44"/>
+      <c r="T17" s="44"/>
+      <c r="U17" s="44"/>
+      <c r="V17" s="44"/>
+      <c r="W17" s="44"/>
+      <c r="X17" s="66"/>
+    </row>
+    <row r="18" s="37" customFormat="1" ht="14.25" customHeight="1" spans="1:24">
+      <c r="A18" s="45"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="60"/>
-      <c r="S18" s="37"/>
-      <c r="T18" s="37"/>
-      <c r="U18" s="37"/>
-      <c r="V18" s="37"/>
-      <c r="W18" s="37"/>
-      <c r="X18" s="59"/>
-    </row>
-    <row r="19" s="30" customFormat="1" ht="14.25" customHeight="1" spans="1:24">
-      <c r="A19" s="38"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="41" t="s">
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="47"/>
+      <c r="R18" s="67"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="44"/>
+      <c r="U18" s="44"/>
+      <c r="V18" s="44"/>
+      <c r="W18" s="44"/>
+      <c r="X18" s="66"/>
+    </row>
+    <row r="19" s="37" customFormat="1" ht="14.25" customHeight="1" spans="1:24">
+      <c r="A19" s="45"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="61"/>
-      <c r="S19" s="37"/>
-      <c r="T19" s="37"/>
-      <c r="U19" s="37"/>
-      <c r="V19" s="37"/>
-      <c r="W19" s="37"/>
-      <c r="X19" s="59"/>
-    </row>
-    <row r="20" s="30" customFormat="1" ht="14.25" customHeight="1" spans="1:24">
-      <c r="A20" s="38"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="62"/>
-      <c r="S20" s="37"/>
-      <c r="T20" s="37"/>
-      <c r="U20" s="37"/>
-      <c r="V20" s="37"/>
-      <c r="W20" s="37"/>
-      <c r="X20" s="59"/>
-    </row>
-    <row r="21" s="30" customFormat="1" spans="1:24">
-      <c r="A21" s="38"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="37"/>
-      <c r="S21" s="37"/>
-      <c r="T21" s="37"/>
-      <c r="U21" s="37"/>
-      <c r="V21" s="37"/>
-      <c r="W21" s="37"/>
-      <c r="X21" s="59"/>
-    </row>
-    <row r="22" s="30" customFormat="1" spans="1:24">
-      <c r="A22" s="38"/>
-      <c r="B22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="39" t="s">
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="68"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="44"/>
+      <c r="V19" s="44"/>
+      <c r="W19" s="44"/>
+      <c r="X19" s="66"/>
+    </row>
+    <row r="20" s="37" customFormat="1" ht="14.25" customHeight="1" spans="1:24">
+      <c r="A20" s="45"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="69"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="44"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="44"/>
+      <c r="X20" s="66"/>
+    </row>
+    <row r="21" s="37" customFormat="1" spans="1:24">
+      <c r="A21" s="45"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="44"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="44"/>
+      <c r="U21" s="44"/>
+      <c r="V21" s="44"/>
+      <c r="W21" s="44"/>
+      <c r="X21" s="66"/>
+    </row>
+    <row r="22" s="37" customFormat="1" spans="1:24">
+      <c r="A22" s="45"/>
+      <c r="B22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="63"/>
-      <c r="S22" s="37"/>
-      <c r="T22" s="37"/>
-      <c r="U22" s="37"/>
-      <c r="V22" s="37"/>
-      <c r="W22" s="37"/>
-      <c r="X22" s="59"/>
-    </row>
-    <row r="23" s="30" customFormat="1" spans="1:24">
-      <c r="A23" s="38"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="46" t="s">
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="70"/>
+      <c r="S22" s="44"/>
+      <c r="T22" s="44"/>
+      <c r="U22" s="44"/>
+      <c r="V22" s="44"/>
+      <c r="W22" s="44"/>
+      <c r="X22" s="66"/>
+    </row>
+    <row r="23" s="37" customFormat="1" spans="1:24">
+      <c r="A23" s="45"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="47"/>
-      <c r="Q23" s="47"/>
-      <c r="R23" s="64"/>
-      <c r="S23" s="37"/>
-      <c r="T23" s="37"/>
-      <c r="U23" s="37"/>
-      <c r="V23" s="37"/>
-      <c r="W23" s="37"/>
-      <c r="X23" s="59"/>
-    </row>
-    <row r="24" s="30" customFormat="1" spans="1:24">
-      <c r="A24" s="38"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="49"/>
-      <c r="R24" s="65"/>
-      <c r="S24" s="37"/>
-      <c r="T24" s="37"/>
-      <c r="U24" s="37"/>
-      <c r="V24" s="37"/>
-      <c r="W24" s="37"/>
-      <c r="X24" s="59"/>
-    </row>
-    <row r="25" s="30" customFormat="1" spans="1:24">
-      <c r="A25" s="38"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="50"/>
-      <c r="Q25" s="50"/>
-      <c r="R25" s="37"/>
-      <c r="S25" s="37"/>
-      <c r="T25" s="37"/>
-      <c r="U25" s="37"/>
-      <c r="V25" s="37"/>
-      <c r="W25" s="37"/>
-      <c r="X25" s="59"/>
-    </row>
-    <row r="26" s="30" customFormat="1" ht="13.2" spans="1:24">
-      <c r="A26" s="38"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="51"/>
-      <c r="R26" s="37"/>
-      <c r="S26" s="37"/>
-      <c r="T26" s="37"/>
-      <c r="U26" s="37"/>
-      <c r="V26" s="37"/>
-      <c r="W26" s="37"/>
-      <c r="X26" s="59"/>
-    </row>
-    <row r="27" s="30" customFormat="1" spans="1:24">
-      <c r="A27" s="38"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="37"/>
-      <c r="R27" s="37"/>
-      <c r="S27" s="37"/>
-      <c r="T27" s="37"/>
-      <c r="U27" s="37"/>
-      <c r="V27" s="37"/>
-      <c r="W27" s="37"/>
-      <c r="X27" s="59"/>
-    </row>
-    <row r="28" s="30" customFormat="1" spans="1:24">
-      <c r="A28" s="38"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="37"/>
-      <c r="S28" s="37"/>
-      <c r="T28" s="37"/>
-      <c r="U28" s="37"/>
-      <c r="V28" s="37"/>
-      <c r="W28" s="37"/>
-      <c r="X28" s="59"/>
-    </row>
-    <row r="29" s="30" customFormat="1" spans="1:24">
-      <c r="A29" s="38"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="37"/>
-      <c r="S29" s="37"/>
-      <c r="T29" s="37"/>
-      <c r="U29" s="37"/>
-      <c r="V29" s="37"/>
-      <c r="W29" s="37"/>
-      <c r="X29" s="59"/>
-    </row>
-    <row r="30" s="30" customFormat="1" spans="1:24">
-      <c r="A30" s="38"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="Q30" s="37"/>
-      <c r="R30" s="37"/>
-      <c r="S30" s="37"/>
-      <c r="T30" s="37"/>
-      <c r="U30" s="37"/>
-      <c r="V30" s="37"/>
-      <c r="W30" s="37"/>
-      <c r="X30" s="59"/>
-    </row>
-    <row r="31" s="30" customFormat="1" spans="1:24">
-      <c r="A31" s="38"/>
-      <c r="F31" s="37"/>
-      <c r="Q31" s="37"/>
-      <c r="R31" s="37"/>
-      <c r="S31" s="37"/>
-      <c r="T31" s="37"/>
-      <c r="U31" s="37"/>
-      <c r="V31" s="37"/>
-      <c r="W31" s="37"/>
-      <c r="X31" s="59"/>
-    </row>
-    <row r="32" s="30" customFormat="1" spans="1:24">
-      <c r="A32" s="38"/>
-      <c r="H32" s="37"/>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="37"/>
-      <c r="S32" s="37"/>
-      <c r="T32" s="37"/>
-      <c r="U32" s="37"/>
-      <c r="V32" s="37"/>
-      <c r="W32" s="37"/>
-      <c r="X32" s="59"/>
-    </row>
-    <row r="33" s="30" customFormat="1" spans="1:24">
-      <c r="A33" s="38"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="37"/>
-      <c r="Q33" s="37"/>
-      <c r="R33" s="37"/>
-      <c r="S33" s="37"/>
-      <c r="T33" s="37"/>
-      <c r="U33" s="37"/>
-      <c r="V33" s="37"/>
-      <c r="W33" s="37"/>
-      <c r="X33" s="59"/>
-    </row>
-    <row r="34" s="30" customFormat="1" spans="1:24">
-      <c r="A34" s="38"/>
-      <c r="B34" s="37"/>
-      <c r="K34" s="50"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37"/>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="37"/>
-      <c r="S34" s="37"/>
-      <c r="T34" s="37"/>
-      <c r="U34" s="37"/>
-      <c r="V34" s="37"/>
-      <c r="W34" s="37"/>
-      <c r="X34" s="59"/>
-    </row>
-    <row r="35" s="30" customFormat="1" spans="1:24">
-      <c r="A35" s="38"/>
-      <c r="B35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="37"/>
-      <c r="N35" s="37"/>
-      <c r="O35" s="37"/>
-      <c r="P35" s="37"/>
-      <c r="Q35" s="37"/>
-      <c r="R35" s="37"/>
-      <c r="S35" s="37"/>
-      <c r="T35" s="37"/>
-      <c r="U35" s="37"/>
-      <c r="V35" s="37"/>
-      <c r="W35" s="37"/>
-      <c r="X35" s="59"/>
-    </row>
-    <row r="36" s="30" customFormat="1" spans="1:24">
-      <c r="A36" s="38"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="37"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="37"/>
-      <c r="Q36" s="37"/>
-      <c r="R36" s="37"/>
-      <c r="S36" s="37"/>
-      <c r="T36" s="37"/>
-      <c r="U36" s="37"/>
-      <c r="V36" s="37"/>
-      <c r="W36" s="37"/>
-      <c r="X36" s="59"/>
-    </row>
-    <row r="37" s="30" customFormat="1" spans="1:24">
-      <c r="A37" s="38"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="37"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="37"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="37"/>
-      <c r="R37" s="37"/>
-      <c r="S37" s="37"/>
-      <c r="T37" s="37"/>
-      <c r="U37" s="37"/>
-      <c r="V37" s="37"/>
-      <c r="W37" s="37"/>
-      <c r="X37" s="59"/>
-    </row>
-    <row r="38" s="30" customFormat="1" spans="1:24">
-      <c r="A38" s="38"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="50"/>
-      <c r="L38" s="37"/>
-      <c r="M38" s="37"/>
-      <c r="N38" s="37"/>
-      <c r="O38" s="37"/>
-      <c r="P38" s="37"/>
-      <c r="Q38" s="37"/>
-      <c r="R38" s="37"/>
-      <c r="S38" s="37"/>
-      <c r="T38" s="37"/>
-      <c r="U38" s="37"/>
-      <c r="V38" s="37"/>
-      <c r="W38" s="37"/>
-      <c r="X38" s="59"/>
-    </row>
-    <row r="39" s="30" customFormat="1" spans="1:24">
-      <c r="A39" s="38"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="37"/>
-      <c r="M39" s="37"/>
-      <c r="N39" s="37"/>
-      <c r="O39" s="37"/>
-      <c r="P39" s="37"/>
-      <c r="Q39" s="37"/>
-      <c r="R39" s="37"/>
-      <c r="S39" s="37"/>
-      <c r="T39" s="37"/>
-      <c r="U39" s="37"/>
-      <c r="V39" s="37"/>
-      <c r="W39" s="37"/>
-      <c r="X39" s="59"/>
-    </row>
-    <row r="40" s="30" customFormat="1" spans="1:24">
-      <c r="A40" s="38"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="37"/>
-      <c r="M40" s="37"/>
-      <c r="N40" s="37"/>
-      <c r="O40" s="37"/>
-      <c r="P40" s="37"/>
-      <c r="Q40" s="37"/>
-      <c r="R40" s="37"/>
-      <c r="S40" s="37"/>
-      <c r="T40" s="37"/>
-      <c r="U40" s="37"/>
-      <c r="V40" s="37"/>
-      <c r="W40" s="37"/>
-      <c r="X40" s="59"/>
-    </row>
-    <row r="41" s="30" customFormat="1" spans="1:24">
-      <c r="A41" s="38"/>
-      <c r="I41" s="37"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="37"/>
-      <c r="M41" s="37"/>
-      <c r="N41" s="37"/>
-      <c r="O41" s="37"/>
-      <c r="P41" s="37"/>
-      <c r="X41" s="59"/>
-    </row>
-    <row r="42" s="30" customFormat="1" spans="1:24">
-      <c r="A42" s="38"/>
-      <c r="J42" s="37"/>
-      <c r="K42" s="37"/>
-      <c r="L42" s="37"/>
-      <c r="M42" s="37"/>
-      <c r="N42" s="37"/>
-      <c r="O42" s="37"/>
-      <c r="P42" s="37"/>
-      <c r="Q42" s="37"/>
-      <c r="R42" s="37"/>
-      <c r="S42" s="37"/>
-      <c r="X42" s="59"/>
-    </row>
-    <row r="43" s="30" customFormat="1" spans="1:24">
-      <c r="A43" s="38"/>
-      <c r="T43" s="37"/>
-      <c r="U43" s="37"/>
-      <c r="V43" s="37"/>
-      <c r="W43" s="37"/>
-      <c r="X43" s="59"/>
-    </row>
-    <row r="44" s="30" customFormat="1" spans="1:24">
-      <c r="A44" s="52"/>
-      <c r="B44" s="53"/>
-      <c r="C44" s="53"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="53"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="53"/>
-      <c r="K44" s="53"/>
-      <c r="L44" s="53"/>
-      <c r="M44" s="53"/>
-      <c r="N44" s="53"/>
-      <c r="O44" s="53"/>
-      <c r="P44" s="53"/>
-      <c r="Q44" s="53"/>
-      <c r="R44" s="53"/>
-      <c r="S44" s="53"/>
-      <c r="T44" s="53"/>
-      <c r="U44" s="53"/>
-      <c r="V44" s="53"/>
-      <c r="W44" s="53"/>
-      <c r="X44" s="66"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="54"/>
+      <c r="R23" s="71"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="44"/>
+      <c r="U23" s="44"/>
+      <c r="V23" s="44"/>
+      <c r="W23" s="44"/>
+      <c r="X23" s="66"/>
+    </row>
+    <row r="24" s="37" customFormat="1" spans="1:24">
+      <c r="A24" s="45"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="72"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="44"/>
+      <c r="U24" s="44"/>
+      <c r="V24" s="44"/>
+      <c r="W24" s="44"/>
+      <c r="X24" s="66"/>
+    </row>
+    <row r="25" s="37" customFormat="1" spans="1:24">
+      <c r="A25" s="45"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="57"/>
+      <c r="Q25" s="57"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="44"/>
+      <c r="U25" s="44"/>
+      <c r="V25" s="44"/>
+      <c r="W25" s="44"/>
+      <c r="X25" s="66"/>
+    </row>
+    <row r="26" s="37" customFormat="1" ht="13.2" spans="1:24">
+      <c r="A26" s="45"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="58"/>
+      <c r="P26" s="58"/>
+      <c r="Q26" s="58"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="44"/>
+      <c r="U26" s="44"/>
+      <c r="V26" s="44"/>
+      <c r="W26" s="44"/>
+      <c r="X26" s="66"/>
+    </row>
+    <row r="27" s="37" customFormat="1" spans="1:24">
+      <c r="A27" s="45"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="44"/>
+      <c r="U27" s="44"/>
+      <c r="V27" s="44"/>
+      <c r="W27" s="44"/>
+      <c r="X27" s="66"/>
+    </row>
+    <row r="28" s="37" customFormat="1" spans="1:24">
+      <c r="A28" s="45"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="44"/>
+      <c r="O28" s="44"/>
+      <c r="P28" s="44"/>
+      <c r="Q28" s="44"/>
+      <c r="R28" s="44"/>
+      <c r="S28" s="44"/>
+      <c r="T28" s="44"/>
+      <c r="U28" s="44"/>
+      <c r="V28" s="44"/>
+      <c r="W28" s="44"/>
+      <c r="X28" s="66"/>
+    </row>
+    <row r="29" s="37" customFormat="1" spans="1:24">
+      <c r="A29" s="45"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="44"/>
+      <c r="S29" s="44"/>
+      <c r="T29" s="44"/>
+      <c r="U29" s="44"/>
+      <c r="V29" s="44"/>
+      <c r="W29" s="44"/>
+      <c r="X29" s="66"/>
+    </row>
+    <row r="30" s="37" customFormat="1" spans="1:24">
+      <c r="A30" s="45"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="44"/>
+      <c r="S30" s="44"/>
+      <c r="T30" s="44"/>
+      <c r="U30" s="44"/>
+      <c r="V30" s="44"/>
+      <c r="W30" s="44"/>
+      <c r="X30" s="66"/>
+    </row>
+    <row r="31" s="37" customFormat="1" spans="1:24">
+      <c r="A31" s="45"/>
+      <c r="F31" s="44"/>
+      <c r="Q31" s="44"/>
+      <c r="R31" s="44"/>
+      <c r="S31" s="44"/>
+      <c r="T31" s="44"/>
+      <c r="U31" s="44"/>
+      <c r="V31" s="44"/>
+      <c r="W31" s="44"/>
+      <c r="X31" s="66"/>
+    </row>
+    <row r="32" s="37" customFormat="1" spans="1:24">
+      <c r="A32" s="45"/>
+      <c r="H32" s="44"/>
+      <c r="Q32" s="44"/>
+      <c r="R32" s="44"/>
+      <c r="S32" s="44"/>
+      <c r="T32" s="44"/>
+      <c r="U32" s="44"/>
+      <c r="V32" s="44"/>
+      <c r="W32" s="44"/>
+      <c r="X32" s="66"/>
+    </row>
+    <row r="33" s="37" customFormat="1" spans="1:24">
+      <c r="A33" s="45"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="44"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="44"/>
+      <c r="Q33" s="44"/>
+      <c r="R33" s="44"/>
+      <c r="S33" s="44"/>
+      <c r="T33" s="44"/>
+      <c r="U33" s="44"/>
+      <c r="V33" s="44"/>
+      <c r="W33" s="44"/>
+      <c r="X33" s="66"/>
+    </row>
+    <row r="34" s="37" customFormat="1" spans="1:24">
+      <c r="A34" s="45"/>
+      <c r="B34" s="44"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
+      <c r="Q34" s="44"/>
+      <c r="R34" s="44"/>
+      <c r="S34" s="44"/>
+      <c r="T34" s="44"/>
+      <c r="U34" s="44"/>
+      <c r="V34" s="44"/>
+      <c r="W34" s="44"/>
+      <c r="X34" s="66"/>
+    </row>
+    <row r="35" s="37" customFormat="1" spans="1:24">
+      <c r="A35" s="45"/>
+      <c r="B35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="44"/>
+      <c r="N35" s="44"/>
+      <c r="O35" s="44"/>
+      <c r="P35" s="44"/>
+      <c r="Q35" s="44"/>
+      <c r="R35" s="44"/>
+      <c r="S35" s="44"/>
+      <c r="T35" s="44"/>
+      <c r="U35" s="44"/>
+      <c r="V35" s="44"/>
+      <c r="W35" s="44"/>
+      <c r="X35" s="66"/>
+    </row>
+    <row r="36" s="37" customFormat="1" spans="1:24">
+      <c r="A36" s="45"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="44"/>
+      <c r="M36" s="44"/>
+      <c r="N36" s="44"/>
+      <c r="O36" s="44"/>
+      <c r="P36" s="44"/>
+      <c r="Q36" s="44"/>
+      <c r="R36" s="44"/>
+      <c r="S36" s="44"/>
+      <c r="T36" s="44"/>
+      <c r="U36" s="44"/>
+      <c r="V36" s="44"/>
+      <c r="W36" s="44"/>
+      <c r="X36" s="66"/>
+    </row>
+    <row r="37" s="37" customFormat="1" spans="1:24">
+      <c r="A37" s="45"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="44"/>
+      <c r="O37" s="44"/>
+      <c r="P37" s="44"/>
+      <c r="Q37" s="44"/>
+      <c r="R37" s="44"/>
+      <c r="S37" s="44"/>
+      <c r="T37" s="44"/>
+      <c r="U37" s="44"/>
+      <c r="V37" s="44"/>
+      <c r="W37" s="44"/>
+      <c r="X37" s="66"/>
+    </row>
+    <row r="38" s="37" customFormat="1" spans="1:24">
+      <c r="A38" s="45"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="57"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="44"/>
+      <c r="O38" s="44"/>
+      <c r="P38" s="44"/>
+      <c r="Q38" s="44"/>
+      <c r="R38" s="44"/>
+      <c r="S38" s="44"/>
+      <c r="T38" s="44"/>
+      <c r="U38" s="44"/>
+      <c r="V38" s="44"/>
+      <c r="W38" s="44"/>
+      <c r="X38" s="66"/>
+    </row>
+    <row r="39" s="37" customFormat="1" spans="1:24">
+      <c r="A39" s="45"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="44"/>
+      <c r="O39" s="44"/>
+      <c r="P39" s="44"/>
+      <c r="Q39" s="44"/>
+      <c r="R39" s="44"/>
+      <c r="S39" s="44"/>
+      <c r="T39" s="44"/>
+      <c r="U39" s="44"/>
+      <c r="V39" s="44"/>
+      <c r="W39" s="44"/>
+      <c r="X39" s="66"/>
+    </row>
+    <row r="40" s="37" customFormat="1" spans="1:24">
+      <c r="A40" s="45"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="44"/>
+      <c r="M40" s="44"/>
+      <c r="N40" s="44"/>
+      <c r="O40" s="44"/>
+      <c r="P40" s="44"/>
+      <c r="Q40" s="44"/>
+      <c r="R40" s="44"/>
+      <c r="S40" s="44"/>
+      <c r="T40" s="44"/>
+      <c r="U40" s="44"/>
+      <c r="V40" s="44"/>
+      <c r="W40" s="44"/>
+      <c r="X40" s="66"/>
+    </row>
+    <row r="41" s="37" customFormat="1" spans="1:24">
+      <c r="A41" s="45"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="44"/>
+      <c r="N41" s="44"/>
+      <c r="O41" s="44"/>
+      <c r="P41" s="44"/>
+      <c r="X41" s="66"/>
+    </row>
+    <row r="42" s="37" customFormat="1" spans="1:24">
+      <c r="A42" s="45"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="44"/>
+      <c r="M42" s="44"/>
+      <c r="N42" s="44"/>
+      <c r="O42" s="44"/>
+      <c r="P42" s="44"/>
+      <c r="Q42" s="44"/>
+      <c r="R42" s="44"/>
+      <c r="S42" s="44"/>
+      <c r="X42" s="66"/>
+    </row>
+    <row r="43" s="37" customFormat="1" spans="1:24">
+      <c r="A43" s="45"/>
+      <c r="T43" s="44"/>
+      <c r="U43" s="44"/>
+      <c r="V43" s="44"/>
+      <c r="W43" s="44"/>
+      <c r="X43" s="66"/>
+    </row>
+    <row r="44" s="37" customFormat="1" spans="1:24">
+      <c r="A44" s="59"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="60"/>
+      <c r="K44" s="60"/>
+      <c r="L44" s="60"/>
+      <c r="M44" s="60"/>
+      <c r="N44" s="60"/>
+      <c r="O44" s="60"/>
+      <c r="P44" s="60"/>
+      <c r="Q44" s="60"/>
+      <c r="R44" s="60"/>
+      <c r="S44" s="60"/>
+      <c r="T44" s="60"/>
+      <c r="U44" s="60"/>
+      <c r="V44" s="60"/>
+      <c r="W44" s="60"/>
+      <c r="X44" s="73"/>
     </row>
     <row r="49" spans="4:11">
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="32"/>
-      <c r="I49" s="32"/>
-      <c r="J49" s="32"/>
-      <c r="K49" s="32"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="39"/>
+      <c r="K49" s="39"/>
     </row>
     <row r="50" spans="4:11">
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="32"/>
-      <c r="J50" s="32"/>
-      <c r="K50" s="32"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="39"/>
+      <c r="K50" s="39"/>
     </row>
     <row r="51" spans="4:11">
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="32"/>
-      <c r="I51" s="32"/>
-      <c r="J51" s="32"/>
-      <c r="K51" s="32"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="39"/>
+      <c r="J51" s="39"/>
+      <c r="K51" s="39"/>
     </row>
     <row r="52" spans="4:11">
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="32"/>
-      <c r="I52" s="32"/>
-      <c r="J52" s="32"/>
-      <c r="K52" s="32"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="39"/>
     </row>
     <row r="53" spans="4:11">
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="32"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="32"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="39"/>
+      <c r="K53" s="39"/>
     </row>
     <row r="54" spans="4:11">
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="32"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="32"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="39"/>
+      <c r="J54" s="39"/>
+      <c r="K54" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3667,6 +3906,146 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="3.37962962962963" style="29" customWidth="1"/>
+    <col min="2" max="2" width="4.87962962962963" style="29" customWidth="1"/>
+    <col min="3" max="3" width="63.8796296296296" style="29" customWidth="1"/>
+    <col min="4" max="4" width="11.25" style="29" customWidth="1"/>
+    <col min="5" max="5" width="11.6296296296296" style="29" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="2" s="29" customFormat="1" spans="3:3">
+      <c r="C2" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" s="29" customFormat="1" ht="15.15" spans="2:5">
+      <c r="B3" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" s="29" customFormat="1" ht="15.15" spans="2:5">
+      <c r="B4" s="31">
+        <v>1</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="32">
+        <v>44365</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" s="29" customFormat="1" spans="2:5">
+      <c r="B5" s="33">
+        <v>2</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="33"/>
+    </row>
+    <row r="6" s="29" customFormat="1" spans="2:5">
+      <c r="B6" s="35">
+        <v>3</v>
+      </c>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+    </row>
+    <row r="7" s="29" customFormat="1" spans="2:5">
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+    </row>
+    <row r="8" s="29" customFormat="1" spans="2:5">
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+    </row>
+    <row r="9" s="29" customFormat="1" spans="2:5">
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+    </row>
+    <row r="10" s="29" customFormat="1" spans="2:5">
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+    </row>
+    <row r="11" s="29" customFormat="1" spans="2:5">
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+    </row>
+    <row r="12" s="29" customFormat="1" spans="2:5">
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+    </row>
+    <row r="13" s="29" customFormat="1" spans="2:5">
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+    </row>
+    <row r="14" s="29" customFormat="1" spans="2:5">
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+    </row>
+    <row r="15" s="29" customFormat="1" spans="2:5">
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+    </row>
+    <row r="16" s="29" customFormat="1" spans="2:5">
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+    </row>
+    <row r="17" s="29" customFormat="1" spans="2:5">
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A2:I7"/>
@@ -3690,28 +4069,28 @@
     <row r="2" spans="1:9">
       <c r="A2" s="21"/>
       <c r="B2" s="22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" ht="57.6" spans="2:9">
@@ -3719,22 +4098,22 @@
         <v>1</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I3" s="28">
         <v>44365</v>
@@ -3745,22 +4124,22 @@
         <v>2</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I4" s="28">
         <v>44365</v>
@@ -3771,22 +4150,22 @@
         <v>3</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D5" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>17</v>
-      </c>
       <c r="H5" s="25" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I5" s="28">
         <v>44365</v>
@@ -3797,22 +4176,22 @@
         <v>4</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I6" s="28">
         <v>44365</v>
@@ -3823,22 +4202,22 @@
         <v>5</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I7" s="28">
         <v>44365</v>
@@ -3850,12 +4229,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A2:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -3873,25 +4252,25 @@
     <row r="2" ht="15.15"/>
     <row r="3" ht="18" customHeight="1" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" ht="15.15" spans="1:7">
@@ -3899,60 +4278,60 @@
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C4" s="14">
         <v>6000</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" ht="43.95" spans="1:7">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" ht="43.95" spans="1:7">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="14" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" ht="15.15" spans="1:7">
@@ -3960,79 +4339,79 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C7" s="18">
         <v>44423</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" ht="58.35" spans="1:7">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" ht="43.95" spans="1:7">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="14" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" ht="43.95" spans="1:7">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="14" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" ht="15.15" spans="1:7">
@@ -4040,41 +4419,41 @@
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C11" s="16">
         <v>10</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" ht="43.95" spans="1:7">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="14" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" ht="15.15" spans="1:7">
@@ -4082,41 +4461,41 @@
         <v>4</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C13" s="16">
         <v>10</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" ht="43.95" spans="1:7">
       <c r="A14" s="5"/>
       <c r="B14" s="8"/>
       <c r="C14" s="14" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" ht="15.15" spans="1:7">
@@ -4124,41 +4503,41 @@
         <v>5</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C15" s="16">
         <v>10</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" ht="43.95" spans="1:7">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="14" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" ht="15.15" spans="1:7">
@@ -4166,41 +4545,41 @@
         <v>6</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C17" s="16">
         <v>10</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" ht="43.95" spans="1:7">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="14" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" ht="15.15" spans="1:7">
@@ -4208,41 +4587,41 @@
         <v>7</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C19" s="16">
         <v>1000</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" ht="43.95" spans="1:7">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="14" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" ht="15.15" spans="1:7">
@@ -4250,41 +4629,41 @@
         <v>8</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C21" s="16">
         <v>10</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" ht="43.95" spans="1:7">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="14" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" ht="15.15" spans="1:7">
@@ -4292,41 +4671,41 @@
         <v>9</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C23" s="16">
         <v>10</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" ht="43.95" spans="1:7">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="C24" s="14" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" ht="15.15" spans="1:7">
@@ -4334,41 +4713,41 @@
         <v>10</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C25" s="16">
         <v>10</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" ht="43.95" spans="1:7">
       <c r="A26" s="5"/>
       <c r="B26" s="6"/>
       <c r="C26" s="14" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" ht="15.15" spans="1:7">
@@ -4376,41 +4755,41 @@
         <v>11</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C27" s="16">
         <v>10</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" ht="43.95" spans="1:7">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
       <c r="C28" s="14" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" ht="15.15" spans="1:7">
@@ -4418,41 +4797,41 @@
         <v>12</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C29" s="16">
         <v>10</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" ht="43.95" spans="1:7">
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
       <c r="C30" s="14" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" ht="15.15" spans="1:7">
@@ -4460,41 +4839,41 @@
         <v>13</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C31" s="16">
         <v>10</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" ht="43.95" spans="1:7">
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
       <c r="C32" s="14" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" ht="15.15" spans="1:7">
@@ -4502,41 +4881,41 @@
         <v>14</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C33" s="16">
         <v>10</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" ht="43.95" spans="1:7">
       <c r="A34" s="5"/>
       <c r="B34" s="6"/>
       <c r="C34" s="14" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" ht="15.15" spans="1:7">
@@ -4544,41 +4923,41 @@
         <v>15</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C35" s="16">
         <v>10</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" ht="43.95" spans="1:7">
       <c r="A36" s="5"/>
       <c r="B36" s="6"/>
       <c r="C36" s="14" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" ht="15.15" spans="1:7">
@@ -4586,41 +4965,41 @@
         <v>16</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C37" s="16">
         <v>10</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" ht="43.95" spans="1:7">
       <c r="A38" s="5"/>
       <c r="B38" s="6"/>
       <c r="C38" s="14" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" ht="15.15" spans="1:7">
@@ -4628,41 +5007,41 @@
         <v>17</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C39" s="16">
         <v>10</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" ht="43.95" spans="1:7">
       <c r="A40" s="5"/>
       <c r="B40" s="6"/>
       <c r="C40" s="14" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" ht="15.15" spans="1:7">
@@ -4670,41 +5049,41 @@
         <v>18</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C41" s="16">
         <v>10</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" ht="43.95" spans="1:7">
       <c r="A42" s="5"/>
       <c r="B42" s="6"/>
       <c r="C42" s="14" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" ht="15.15" spans="1:7">
@@ -4712,41 +5091,41 @@
         <v>19</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C43" s="16">
         <v>10</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G43" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" ht="43.95" spans="1:7">
       <c r="A44" s="5"/>
       <c r="B44" s="6"/>
       <c r="C44" s="14" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" ht="15.15" spans="1:7">
@@ -4754,41 +5133,41 @@
         <v>20</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C45" s="16">
         <v>10</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" ht="43.95" spans="1:7">
       <c r="A46" s="5"/>
       <c r="B46" s="6"/>
       <c r="C46" s="14" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F46" s="17" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" ht="15.15" spans="1:7">
@@ -4796,60 +5175,60 @@
         <v>21</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C47" s="16">
         <v>60000</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" ht="43.95" spans="1:7">
       <c r="A48" s="5"/>
       <c r="B48" s="6"/>
       <c r="C48" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F48" s="17" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" ht="43.95" spans="1:7">
       <c r="A49" s="5"/>
       <c r="B49" s="6"/>
       <c r="C49" s="14" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G49" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" ht="15.15" spans="1:7">
@@ -4857,60 +5236,60 @@
         <v>22</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C50" s="16">
         <v>6000</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G50" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" ht="43.95" spans="1:7">
       <c r="A51" s="5"/>
       <c r="B51" s="6"/>
       <c r="C51" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F51" s="17" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" ht="43.95" spans="1:7">
       <c r="A52" s="5"/>
       <c r="B52" s="6"/>
       <c r="C52" s="14" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F52" s="17" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G52" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -4919,7 +5298,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A2:D28"/>
@@ -4938,21 +5317,21 @@
   <sheetData>
     <row r="2" ht="15.15" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" ht="15.15" spans="1:4">
@@ -4960,7 +5339,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C4" s="7">
         <v>44409</v>
@@ -4974,7 +5353,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C5" s="8">
         <v>60000</v>
@@ -4988,7 +5367,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C6" s="9">
         <v>44454</v>
@@ -5002,7 +5381,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C7" s="8">
         <v>10</v>
@@ -5016,7 +5395,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C8" s="8">
         <v>10</v>
@@ -5030,7 +5409,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C9" s="8">
         <v>10</v>
@@ -5044,7 +5423,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C10" s="8">
         <v>10</v>
@@ -5058,7 +5437,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C11" s="8">
         <v>1000</v>
@@ -5072,7 +5451,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C12" s="8">
         <v>10</v>
@@ -5086,7 +5465,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C13" s="8">
         <v>10</v>
@@ -5100,13 +5479,13 @@
         <v>11</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" ht="15.15" spans="1:4">
@@ -5114,7 +5493,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C15" s="8">
         <v>10</v>
@@ -5128,7 +5507,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C16" s="8">
         <v>10</v>
@@ -5142,7 +5521,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C17" s="8">
         <v>10</v>
@@ -5156,7 +5535,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C18" s="8">
         <v>10</v>
@@ -5170,7 +5549,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C19" s="8">
         <v>10</v>
@@ -5184,7 +5563,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C20" s="8">
         <v>10</v>
@@ -5198,7 +5577,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C21" s="8">
         <v>10</v>
@@ -5212,7 +5591,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C22" s="8">
         <v>10</v>
@@ -5226,7 +5605,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C23" s="8">
         <v>10</v>
@@ -5240,7 +5619,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C24" s="8">
         <v>10</v>
@@ -5254,7 +5633,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C25" s="8">
         <v>10</v>
@@ -5268,7 +5647,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C26" s="8">
         <v>61000</v>
@@ -5282,7 +5661,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C27" s="8">
         <v>61000</v>
@@ -5296,13 +5675,13 @@
         <v>25</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -5311,7 +5690,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A2:E28"/>
@@ -5331,24 +5710,24 @@
   <sheetData>
     <row r="2" ht="15.15" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" ht="15.15" spans="1:5">
@@ -5356,7 +5735,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C4" s="7">
         <v>44378</v>
@@ -5373,7 +5752,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C5" s="8">
         <v>60000</v>
@@ -5390,7 +5769,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C6" s="9">
         <v>44423</v>
@@ -5407,7 +5786,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C7" s="8">
         <v>10</v>
@@ -5424,7 +5803,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C8" s="8">
         <v>10</v>
@@ -5441,7 +5820,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C9" s="8">
         <v>10</v>
@@ -5458,7 +5837,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C10" s="8">
         <v>10</v>
@@ -5475,7 +5854,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C11" s="8">
         <v>1000</v>
@@ -5492,7 +5871,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C12" s="8">
         <v>10</v>
@@ -5509,7 +5888,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C13" s="8">
         <v>10</v>
@@ -5526,16 +5905,16 @@
         <v>11</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" ht="15.15" spans="1:5">
@@ -5543,7 +5922,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C15" s="8">
         <v>10</v>
@@ -5560,7 +5939,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C16" s="8">
         <v>10</v>
@@ -5577,7 +5956,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C17" s="8">
         <v>10</v>
@@ -5594,7 +5973,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C18" s="8">
         <v>10</v>
@@ -5611,7 +5990,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C19" s="8">
         <v>10</v>
@@ -5628,7 +6007,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C20" s="8">
         <v>10</v>
@@ -5645,7 +6024,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C21" s="8">
         <v>10</v>
@@ -5662,7 +6041,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C22" s="8">
         <v>10</v>
@@ -5679,7 +6058,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C23" s="8">
         <v>10</v>
@@ -5696,7 +6075,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C24" s="8">
         <v>10</v>
@@ -5713,7 +6092,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C25" s="8">
         <v>10</v>
@@ -5730,7 +6109,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C26" s="8">
         <v>61000</v>
@@ -5747,7 +6126,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C27" s="8">
         <v>61000</v>
@@ -5764,16 +6143,16 @@
         <v>25</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
